--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3047892.753676062</v>
+        <v>3045395.021752372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554858</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616887</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>116.0650562159118</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241028832</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>1.45320055629491</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>68.2151093398426</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465901</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>196.7009399697754</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616887</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386872</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241028832</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011785</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>55.01245280947366</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>317.1229952260962</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.704136202664817</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>158.781302720661</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>270.7700963928842</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>148.2073548434046</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>142.5318748130975</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977262</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223582</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
-        <v>59.44001103519365</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711231</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.0144564194709</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="C2" t="n">
-        <v>934.0144564194709</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="D2" t="n">
-        <v>575.7487578127204</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="E2" t="n">
-        <v>189.9605052144762</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="F2" t="n">
-        <v>183.0150044652727</v>
+        <v>908.324889106073</v>
       </c>
       <c r="G2" t="n">
-        <v>169.9555181156072</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H2" t="n">
-        <v>52.71808759448422</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002345</v>
+        <v>240.3507333903776</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745283</v>
+        <v>321.4042764948841</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031065</v>
+        <v>872.3447282234645</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084381</v>
+        <v>1501.978681104742</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039494</v>
+        <v>1796.232074633117</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780573</v>
+        <v>1964.401531937495</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833993</v>
+        <v>2392.009993239692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.143761215016</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.451089270047</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2050.388201926477</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.619546656362</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="X2" t="n">
-        <v>1324.153788395283</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="Y2" t="n">
-        <v>934.0144564194709</v>
+        <v>1677.576492502431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640342</v>
+        <v>199.8245529640335</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K3" t="n">
-        <v>119.300560189547</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L3" t="n">
-        <v>622.2833943866565</v>
+        <v>1002.163317769836</v>
       </c>
       <c r="M3" t="n">
-        <v>1261.219859367373</v>
+        <v>1180.051769638054</v>
       </c>
       <c r="N3" t="n">
-        <v>1913.606193349115</v>
+        <v>1832.438103619796</v>
       </c>
       <c r="O3" t="n">
-        <v>2461.531432554787</v>
+        <v>2380.36334282547</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877468</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4437,7 +4437,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4446,13 +4446,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275.9251726312849</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="C4" t="n">
-        <v>275.9251726312849</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D4" t="n">
-        <v>275.9251726312849</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E4" t="n">
-        <v>275.9251726312849</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F4" t="n">
-        <v>275.9251726312849</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>207.0210217829591</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554373</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421854</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421854</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421854</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="U4" t="n">
-        <v>758.5992117351891</v>
+        <v>420.3420886736795</v>
       </c>
       <c r="V4" t="n">
-        <v>503.9147235293023</v>
+        <v>420.3420886736795</v>
       </c>
       <c r="W4" t="n">
-        <v>503.9147235293023</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="X4" t="n">
-        <v>275.9251726312849</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="Y4" t="n">
-        <v>275.9251726312849</v>
+        <v>221.6542705223911</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>920.1110786634317</v>
+        <v>947.6336326549251</v>
       </c>
       <c r="C5" t="n">
-        <v>551.1485617230201</v>
+        <v>578.6711157145133</v>
       </c>
       <c r="D5" t="n">
-        <v>192.8828631162696</v>
+        <v>578.6711157145133</v>
       </c>
       <c r="E5" t="n">
-        <v>192.8828631162696</v>
+        <v>192.8828631162691</v>
       </c>
       <c r="F5" t="n">
-        <v>185.9373623670662</v>
+        <v>185.9373623670656</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8778760174006</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174006</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002345</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745283</v>
+        <v>365.0295758756591</v>
       </c>
       <c r="L5" t="n">
-        <v>693.1884131896921</v>
+        <v>915.9700276042395</v>
       </c>
       <c r="M5" t="n">
-        <v>1322.822366070967</v>
+        <v>1545.603980485517</v>
       </c>
       <c r="N5" t="n">
-        <v>1948.012457026079</v>
+        <v>1737.820616272767</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780573</v>
+        <v>2282.982253027263</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833993</v>
+        <v>2392.009993239692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2479.413416894737</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.08466423456</v>
+        <v>2264.560549649957</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.08466423456</v>
+        <v>2010.867877704989</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.08466423456</v>
+        <v>2010.867877704989</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.316008964445</v>
+        <v>1658.099222434874</v>
       </c>
       <c r="X5" t="n">
-        <v>1696.850250703365</v>
+        <v>1337.772964630737</v>
       </c>
       <c r="Y5" t="n">
-        <v>1306.710918727553</v>
+        <v>947.6336326549251</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120986</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309716</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697203</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642648</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911498</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640342</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815775</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352073</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727229</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769832</v>
+        <v>635.0313759194112</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.051769638049</v>
+        <v>1273.967840900129</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.320983085772</v>
+        <v>1643.297497944258</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291445</v>
+        <v>2191.222737149932</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018977</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4680,7 +4680,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4689,7 +4689,7 @@
         <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232167</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.5739510150303</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="C7" t="n">
-        <v>497.6377680871234</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5211286747877</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E7" t="n">
-        <v>199.6080350923946</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554373</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421854</v>
+        <v>1043.000031691895</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421854</v>
+        <v>1043.000031691895</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421854</v>
+        <v>817.3476276305664</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421854</v>
+        <v>528.1951549439012</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421854</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="W7" t="n">
-        <v>887.3665301585604</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="X7" t="n">
-        <v>887.3665301585604</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.5739510150303</v>
+        <v>52.7180875944842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.460808852556</v>
+        <v>390.9340812943467</v>
       </c>
       <c r="C8" t="n">
-        <v>1340.498291912144</v>
+        <v>390.9340812943467</v>
       </c>
       <c r="D8" t="n">
-        <v>982.2325933053937</v>
+        <v>390.9340812943467</v>
       </c>
       <c r="E8" t="n">
-        <v>596.4443407071494</v>
+        <v>390.9340812943467</v>
       </c>
       <c r="F8" t="n">
-        <v>185.4584359175419</v>
+        <v>383.9885805451432</v>
       </c>
       <c r="G8" t="n">
-        <v>172.4110581943734</v>
+        <v>370.9412028219747</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786752</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>622.5709059248695</v>
       </c>
       <c r="L8" t="n">
-        <v>683.9992506428538</v>
+        <v>1175.384164171069</v>
       </c>
       <c r="M8" t="n">
-        <v>1315.717061626166</v>
+        <v>1807.101975154381</v>
       </c>
       <c r="N8" t="n">
-        <v>1943.024729686012</v>
+        <v>2001.436188046363</v>
       </c>
       <c r="O8" t="n">
-        <v>2490.185934453089</v>
+        <v>2171.605213363322</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702616</v>
+        <v>2600.920259702617</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724211</v>
+        <v>2421.104517991923</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.904379724211</v>
+        <v>2167.412814737074</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.904379724211</v>
+        <v>1893.907666865474</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.904379724211</v>
+        <v>1541.13901159536</v>
       </c>
       <c r="X8" t="n">
-        <v>2486.199980892489</v>
+        <v>1167.67325333428</v>
       </c>
       <c r="Y8" t="n">
-        <v>2096.060648916678</v>
+        <v>777.5339213584684</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416774</v>
+        <v>98.62294460416776</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J9" t="n">
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571898</v>
+        <v>238.9851591147369</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>743.3466989808555</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.289170088821</v>
+        <v>1383.89204844796</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1820.869607825449</v>
       </c>
       <c r="O9" t="n">
         <v>1980.381920494209</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150303</v>
+        <v>196.6896783147847</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747877</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923946</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="K10" t="n">
-        <v>153.766017190094</v>
+        <v>153.7660171900941</v>
       </c>
       <c r="L10" t="n">
         <v>338.5990120909124</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>633.0226313509113</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>378.3381431450244</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>378.3381431450244</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>378.3381431450244</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.22241584527</v>
+        <v>378.3381431450244</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5176,25 +5176,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449245</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>377.6556127449245</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6315,10 +6315,10 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,13 +6774,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
         <v>680.0291294438176</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,28 +6932,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,16 +7208,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,10 +7661,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>103.0674320617427</v>
       </c>
       <c r="O2" t="n">
-        <v>368.9308216532355</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026547145</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792276</v>
+        <v>459.9808678792256</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>45.42368237240984</v>
+        <v>127.4116517959594</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8216,16 +8216,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>213.1625741425536</v>
       </c>
       <c r="L5" t="n">
-        <v>405.7918549409409</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>58.8524632994108</v>
+        <v>174.0650325887068</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>301.6664290323804</v>
       </c>
       <c r="L8" t="n">
-        <v>392.0758612516573</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>240.7280987119432</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-1.986780390105316e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664513</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>792731.3750662159</v>
+        <v>792731.3750662154</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>792731.3750662159</v>
+        <v>792731.3750662154</v>
       </c>
     </row>
     <row r="4">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365058</v>
@@ -26332,28 +26332,28 @@
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365061</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222384</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448476983</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329922</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663869</v>
+        <v>128024.1174663867</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.48053169512</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695034</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695076</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
+        <v>6287.480531695073</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695062</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695041</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695001</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695042</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
         <v>86631.12555917783</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-362962.8894038782</v>
+        <v>-362962.889403881</v>
       </c>
       <c r="C6" t="n">
-        <v>426883.0437183599</v>
+        <v>426883.0437183601</v>
       </c>
       <c r="D6" t="n">
-        <v>424768.0519109833</v>
+        <v>424768.0519109862</v>
       </c>
       <c r="E6" t="n">
-        <v>-196959.6728520888</v>
+        <v>-196994.4107775245</v>
       </c>
       <c r="F6" t="n">
-        <v>578664.5993809034</v>
+        <v>578629.861455468</v>
       </c>
       <c r="G6" t="n">
-        <v>578664.5993809036</v>
+        <v>578629.861455468</v>
       </c>
       <c r="H6" t="n">
-        <v>578664.5993809034</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="I6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="J6" t="n">
-        <v>406247.4579987632</v>
+        <v>406212.7200733274</v>
       </c>
       <c r="K6" t="n">
-        <v>578664.5993809036</v>
+        <v>578629.861455468</v>
       </c>
       <c r="L6" t="n">
-        <v>578664.5993809036</v>
+        <v>578629.8614554676</v>
       </c>
       <c r="M6" t="n">
-        <v>450640.4819145166</v>
+        <v>450605.7439890812</v>
       </c>
       <c r="N6" t="n">
-        <v>578664.5993809036</v>
+        <v>578629.8614554681</v>
       </c>
       <c r="O6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.861455468</v>
       </c>
       <c r="P6" t="n">
-        <v>578664.599380904</v>
+        <v>578629.8614554678</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.976094931053</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632727843</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685955</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>199.0985952557055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386872</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011785</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>347.7877681611181</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>98.71104441259016</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842213</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371269</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937734</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>89.82205836681555</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>157.6918857628582</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>52.6081054523728</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842213</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371269</v>
+        <v>124.7108238344618</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937734</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>127.74169561593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>56.98216207725068</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>221.5237458350644</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>24.71494628553035</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,10 +28065,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337077</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728729</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170468</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366197</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445327</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849512</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337077</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728729</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170468</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366197</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445327</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849512</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0225991093089</v>
+        <v>312.320722633498</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>550.5977692975237</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428205</v>
+        <v>189.5279250463569</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212618</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965436</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992674</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789012</v>
+        <v>297.2256500286621</v>
       </c>
       <c r="O2" t="n">
-        <v>538.7989603445242</v>
+        <v>169.868138691291</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176033</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607204</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329575</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673904</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814872</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>153.9864114370511</v>
+        <v>235.974380860602</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.1478786330741</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287763</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973493</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428205</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212618</v>
+        <v>295.0348399046815</v>
       </c>
       <c r="L5" t="n">
-        <v>544.6361471870341</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992674</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789012</v>
+        <v>194.1582179669193</v>
       </c>
       <c r="O5" t="n">
-        <v>550.668319954034</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176033</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607204</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138617</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358743</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859691</v>
+        <v>137.2231235825116</v>
       </c>
       <c r="M6" t="n">
-        <v>179.6853049173905</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N6" t="n">
-        <v>257.8476903512359</v>
+        <v>373.0602596405338</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814872</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045784</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689232</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287763</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973493</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>385.063554865302</v>
       </c>
       <c r="L8" t="n">
-        <v>532.8118772529232</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35252,19 +35252,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>441.3914741186752</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712617</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>8.181160134949948</v>
+        <v>174.479283659139</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>416.6233618831934</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
